--- a/files/biosamples-and-sequencing.xlsx
+++ b/files/biosamples-and-sequencing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kad/projects/cog-uk/cog-uk.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4D98BB-A87D-6340-B5C1-048E10D3049C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565BD5F2-EC2C-A44D-821A-3D59BEBB1915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2360" windowWidth="32100" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cog-uk-metadata-template_sample" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>adm1</t>
   </si>
@@ -1083,22 +1083,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD10"/>
+  <dimension ref="A1:XFC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="19" width="10.83203125" style="1"/>
     <col min="20" max="20" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="1"/>
+    <col min="21" max="21" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384">
+    <row r="1" spans="1:16383">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,54 +1159,51 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16384">
+    <row r="2" spans="1:16383">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:16384">
+    <row r="3" spans="1:16383">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1218,7 +1214,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:16384">
+    <row r="4" spans="1:16383">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1248,28 +1244,28 @@
       </c>
       <c r="U4"/>
       <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4" t="s">
+      <c r="W4" t="s">
         <v>63</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="X4" t="s">
         <v>64</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Y4" t="s">
         <v>65</v>
       </c>
-      <c r="AA4">
+      <c r="Z4">
         <v>1</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AA4" t="s">
         <v>66</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AB4" t="s">
         <v>67</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" t="s">
         <v>68</v>
       </c>
+      <c r="AD4"/>
       <c r="AE4"/>
       <c r="AF4"/>
       <c r="AG4"/>
@@ -17623,9 +17619,8 @@
       <c r="XFA4"/>
       <c r="XFB4"/>
       <c r="XFC4"/>
-      <c r="XFD4"/>
     </row>
-    <row r="5" spans="1:16384">
+    <row r="5" spans="1:16383">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -17658,28 +17653,28 @@
       </c>
       <c r="U5"/>
       <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5" t="s">
+      <c r="W5" t="s">
         <v>63</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="X5" t="s">
         <v>64</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Y5" t="s">
         <v>65</v>
       </c>
-      <c r="AA5">
+      <c r="Z5">
         <v>2</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AA5" t="s">
         <v>66</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AB5" t="s">
         <v>67</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AC5" t="s">
         <v>68</v>
       </c>
+      <c r="AD5"/>
       <c r="AE5"/>
       <c r="AF5"/>
       <c r="AG5"/>
@@ -34033,9 +34028,8 @@
       <c r="XFA5"/>
       <c r="XFB5"/>
       <c r="XFC5"/>
-      <c r="XFD5"/>
     </row>
-    <row r="6" spans="1:16384">
+    <row r="6" spans="1:16383">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -34068,29 +34062,29 @@
       </c>
       <c r="U6"/>
       <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6" t="s">
+      <c r="W6" t="s">
         <v>63</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="X6" t="s">
         <v>64</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Y6" t="s">
         <v>65</v>
       </c>
-      <c r="AA6"/>
-      <c r="AB6" t="s">
+      <c r="Z6"/>
+      <c r="AA6" t="s">
         <v>72</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AB6" t="s">
         <v>73</v>
       </c>
+      <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6">
+      <c r="AF6">
         <v>5678</v>
       </c>
+      <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
       <c r="AJ6"/>
@@ -50441,9 +50435,8 @@
       <c r="XFA6"/>
       <c r="XFB6"/>
       <c r="XFC6"/>
-      <c r="XFD6"/>
     </row>
-    <row r="7" spans="1:16384">
+    <row r="7" spans="1:16383">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -50476,28 +50469,28 @@
       </c>
       <c r="U7"/>
       <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7" t="s">
+      <c r="W7" t="s">
         <v>63</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="X7" t="s">
         <v>64</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Y7" t="s">
         <v>65</v>
       </c>
-      <c r="AA7">
+      <c r="Z7">
         <v>1</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AA7" t="s">
         <v>66</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AB7" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AC7" t="s">
         <v>68</v>
       </c>
+      <c r="AD7"/>
       <c r="AE7"/>
       <c r="AF7"/>
       <c r="AG7"/>
@@ -66851,9 +66844,8 @@
       <c r="XFA7"/>
       <c r="XFB7"/>
       <c r="XFC7"/>
-      <c r="XFD7"/>
     </row>
-    <row r="8" spans="1:16384">
+    <row r="8" spans="1:16383">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -66873,7 +66865,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16384">
+    <row r="9" spans="1:16383">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -66893,7 +66885,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:16384">
+    <row r="10" spans="1:16383">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>

--- a/files/biosamples-and-sequencing.xlsx
+++ b/files/biosamples-and-sequencing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kad/projects/cog-uk/cog-uk.io/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au3/Documents/code/covid19/cog-uk.io/website/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4D98BB-A87D-6340-B5C1-048E10D3049C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AAFB04-D1C3-5C46-8772-BD7DE24A1FB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2360" windowWidth="32100" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="2840" windowWidth="39840" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cog-uk-metadata-template_sample" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>adm1</t>
   </si>
@@ -248,7 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1085,20 +1085,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="19" width="10.83203125" style="1"/>
+    <col min="1" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="20.6640625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="10.83203125" style="1"/>
     <col min="20" max="20" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384">
+    <row r="1" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1202,12 +1204,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16384">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:16384">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1218,7 +1220,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:16384">
+    <row r="4" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -17625,7 +17627,7 @@
       <c r="XFC4"/>
       <c r="XFD4"/>
     </row>
-    <row r="5" spans="1:16384">
+    <row r="5" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -34035,7 +34037,7 @@
       <c r="XFC5"/>
       <c r="XFD5"/>
     </row>
-    <row r="6" spans="1:16384">
+    <row r="6" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -50443,7 +50445,7 @@
       <c r="XFC6"/>
       <c r="XFD6"/>
     </row>
-    <row r="7" spans="1:16384">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -66853,7 +66855,7 @@
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
-    <row r="8" spans="1:16384">
+    <row r="8" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -66872,8 +66874,44 @@
       <c r="I8" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="Q8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="9" spans="1:16384">
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -66893,7 +66931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:16384">
+    <row r="10" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -66915,5 +66953,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/files/biosamples-and-sequencing.xlsx
+++ b/files/biosamples-and-sequencing.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kad/projects/cog-uk/cog-uk.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9809FE-C43A-934B-AEF7-6815C4CC6AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4723A7C-C3AA-0C43-8A9F-E6BB604E515B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2360" windowWidth="23220" windowHeight="14880"/>
+    <workbookView xWindow="5580" yWindow="2320" windowWidth="23220" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biosamples-and-sequencing" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>adm1</t>
   </si>
@@ -224,12 +224,30 @@
   </si>
   <si>
     <t>Tyrone</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
+  </si>
+  <si>
+    <t>2020-03-15</t>
+  </si>
+  <si>
+    <t>2020-03-17</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -709,7 +727,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1064,393 +1082,398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1">
-        <v>43900</v>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1">
-        <v>43900</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="1">
         <v>1</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:33">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1">
-        <v>43890</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="1">
         <v>2</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="1">
-        <v>43886</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="1">
         <v>5678</v>
       </c>
     </row>
     <row r="7" spans="1:33">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="1">
-        <v>43905</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1">
         <v>67</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="1">
         <v>1</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:33">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="1">
-        <v>43907</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1">
         <v>78</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:33">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="1">
-        <v>43895</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="1">
         <v>44</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:33">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="1">
-        <v>43900</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1">
         <v>72</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>67</v>
       </c>
     </row>
